--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/F2-F2rl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/F2-F2rl1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.5597896666666667</v>
+        <v>0.04339299999999999</v>
       </c>
       <c r="H2">
-        <v>1.679369</v>
+        <v>0.130179</v>
       </c>
       <c r="I2">
-        <v>0.4918833646099291</v>
+        <v>0.0698021577815419</v>
       </c>
       <c r="J2">
-        <v>0.491883364609929</v>
+        <v>0.0698021577815419</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2416746666666667</v>
+        <v>0.295943</v>
       </c>
       <c r="N2">
-        <v>0.725024</v>
+        <v>0.887829</v>
       </c>
       <c r="O2">
-        <v>0.04568496189055127</v>
+        <v>0.0553754985456454</v>
       </c>
       <c r="P2">
-        <v>0.04568496189055127</v>
+        <v>0.0553754985456454</v>
       </c>
       <c r="Q2">
-        <v>0.1352869810951111</v>
+        <v>0.012841854599</v>
       </c>
       <c r="R2">
-        <v>1.217582829856</v>
+        <v>0.115576691391</v>
       </c>
       <c r="S2">
-        <v>0.02247167276680075</v>
+        <v>0.003865329286714684</v>
       </c>
       <c r="T2">
-        <v>0.02247167276680075</v>
+        <v>0.003865329286714684</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.5597896666666667</v>
+        <v>0.04339299999999999</v>
       </c>
       <c r="H3">
-        <v>1.679369</v>
+        <v>0.130179</v>
       </c>
       <c r="I3">
-        <v>0.4918833646099291</v>
+        <v>0.0698021577815419</v>
       </c>
       <c r="J3">
-        <v>0.491883364609929</v>
+        <v>0.0698021577815419</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>15.145056</v>
       </c>
       <c r="O3">
-        <v>0.9543150381094487</v>
+        <v>0.9446245014543545</v>
       </c>
       <c r="P3">
-        <v>0.9543150381094487</v>
+        <v>0.9446245014543546</v>
       </c>
       <c r="Q3">
-        <v>2.826015283296</v>
+        <v>0.219063138336</v>
       </c>
       <c r="R3">
-        <v>25.434137549664</v>
+        <v>1.971568245024</v>
       </c>
       <c r="S3">
-        <v>0.4694116918431284</v>
+        <v>0.06593682849482721</v>
       </c>
       <c r="T3">
-        <v>0.4694116918431283</v>
+        <v>0.06593682849482722</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>1.261615</v>
       </c>
       <c r="I4">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="J4">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.2416746666666667</v>
+        <v>0.295943</v>
       </c>
       <c r="N4">
-        <v>0.725024</v>
+        <v>0.887829</v>
       </c>
       <c r="O4">
-        <v>0.04568496189055127</v>
+        <v>0.0553754985456454</v>
       </c>
       <c r="P4">
-        <v>0.04568496189055127</v>
+        <v>0.0553754985456454</v>
       </c>
       <c r="Q4">
-        <v>0.1016334615288889</v>
+        <v>0.1244553759816667</v>
       </c>
       <c r="R4">
-        <v>0.9147011537599999</v>
+        <v>1.120098383835</v>
       </c>
       <c r="S4">
-        <v>0.01688169749333667</v>
+        <v>0.03746039997279551</v>
       </c>
       <c r="T4">
-        <v>0.01688169749333667</v>
+        <v>0.03746039997279551</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.261615</v>
       </c>
       <c r="I5">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="J5">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,10 +744,10 @@
         <v>15.145056</v>
       </c>
       <c r="O5">
-        <v>0.9543150381094487</v>
+        <v>0.9446245014543545</v>
       </c>
       <c r="P5">
-        <v>0.9543150381094487</v>
+        <v>0.9446245014543546</v>
       </c>
       <c r="Q5">
         <v>2.12302553616</v>
@@ -756,10 +756,10 @@
         <v>19.10722982544</v>
       </c>
       <c r="S5">
-        <v>0.3526424696446512</v>
+        <v>0.6390192879151125</v>
       </c>
       <c r="T5">
-        <v>0.3526424696446512</v>
+        <v>0.6390192879151126</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.473177</v>
       </c>
       <c r="I6">
-        <v>0.138592468252083</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="J6">
-        <v>0.138592468252083</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -800,28 +800,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.2416746666666667</v>
+        <v>0.295943</v>
       </c>
       <c r="N6">
-        <v>0.725024</v>
+        <v>0.887829</v>
       </c>
       <c r="O6">
-        <v>0.04568496189055127</v>
+        <v>0.0553754985456454</v>
       </c>
       <c r="P6">
-        <v>0.04568496189055127</v>
+        <v>0.0553754985456454</v>
       </c>
       <c r="Q6">
-        <v>0.03811829791644445</v>
+        <v>0.04667780697033334</v>
       </c>
       <c r="R6">
-        <v>0.343064681248</v>
+        <v>0.420100262733</v>
       </c>
       <c r="S6">
-        <v>0.00633159163041385</v>
+        <v>0.0140497692861352</v>
       </c>
       <c r="T6">
-        <v>0.006331591630413849</v>
+        <v>0.0140497692861352</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.473177</v>
       </c>
       <c r="I7">
-        <v>0.138592468252083</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="J7">
-        <v>0.138592468252083</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>15.145056</v>
       </c>
       <c r="O7">
-        <v>0.9543150381094487</v>
+        <v>0.9446245014543545</v>
       </c>
       <c r="P7">
-        <v>0.9543150381094487</v>
+        <v>0.9446245014543546</v>
       </c>
       <c r="Q7">
         <v>0.7962546847680001</v>
@@ -880,10 +880,10 @@
         <v>7.166292162912001</v>
       </c>
       <c r="S7">
-        <v>0.1322608766216692</v>
+        <v>0.2396683850444147</v>
       </c>
       <c r="T7">
-        <v>0.1322608766216691</v>
+        <v>0.2396683850444148</v>
       </c>
     </row>
   </sheetData>
